--- a/通用平台_SD_数据库设计说明书_v3.xlsx
+++ b/通用平台_SD_数据库设计说明书_v3.xlsx
@@ -20070,29 +20070,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -20112,18 +20115,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -20133,23 +20124,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -20162,6 +20153,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -20947,7 +20947,7 @@
   </sheetPr>
   <dimension ref="B1:J263"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A207" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J230" sqref="J230"/>
     </sheetView>
   </sheetViews>
@@ -25945,7 +25945,7 @@
   </sheetPr>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
@@ -29824,52 +29824,52 @@
       </c>
     </row>
     <row r="3" spans="2:39">
-      <c r="B3" s="458" t="s">
+      <c r="B3" s="455" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="459"/>
-      <c r="D3" s="459"/>
-      <c r="E3" s="459"/>
-      <c r="F3" s="460"/>
+      <c r="C3" s="456"/>
+      <c r="D3" s="456"/>
+      <c r="E3" s="456"/>
+      <c r="F3" s="457"/>
       <c r="G3" s="69" t="s">
         <v>1186</v>
       </c>
-      <c r="H3" s="448" t="s">
+      <c r="H3" s="449" t="s">
         <v>1187</v>
       </c>
-      <c r="I3" s="449"/>
-      <c r="J3" s="450"/>
-      <c r="K3" s="448" t="s">
+      <c r="I3" s="450"/>
+      <c r="J3" s="451"/>
+      <c r="K3" s="449" t="s">
         <v>1204</v>
       </c>
-      <c r="L3" s="449"/>
-      <c r="M3" s="449"/>
-      <c r="N3" s="449"/>
-      <c r="O3" s="449"/>
-      <c r="P3" s="449"/>
-      <c r="Q3" s="449"/>
-      <c r="R3" s="449"/>
-      <c r="S3" s="449"/>
-      <c r="T3" s="449"/>
-      <c r="U3" s="449"/>
-      <c r="V3" s="449"/>
-      <c r="W3" s="449"/>
-      <c r="X3" s="449"/>
-      <c r="Y3" s="450"/>
-      <c r="Z3" s="451" t="s">
+      <c r="L3" s="450"/>
+      <c r="M3" s="450"/>
+      <c r="N3" s="450"/>
+      <c r="O3" s="450"/>
+      <c r="P3" s="450"/>
+      <c r="Q3" s="450"/>
+      <c r="R3" s="450"/>
+      <c r="S3" s="450"/>
+      <c r="T3" s="450"/>
+      <c r="U3" s="450"/>
+      <c r="V3" s="450"/>
+      <c r="W3" s="450"/>
+      <c r="X3" s="450"/>
+      <c r="Y3" s="451"/>
+      <c r="Z3" s="452" t="s">
         <v>1219</v>
       </c>
-      <c r="AA3" s="449"/>
-      <c r="AB3" s="449"/>
-      <c r="AC3" s="449"/>
-      <c r="AD3" s="449"/>
-      <c r="AE3" s="449"/>
-      <c r="AF3" s="449"/>
-      <c r="AG3" s="449"/>
-      <c r="AH3" s="449"/>
-      <c r="AI3" s="449"/>
-      <c r="AJ3" s="449"/>
-      <c r="AK3" s="450"/>
+      <c r="AA3" s="450"/>
+      <c r="AB3" s="450"/>
+      <c r="AC3" s="450"/>
+      <c r="AD3" s="450"/>
+      <c r="AE3" s="450"/>
+      <c r="AF3" s="450"/>
+      <c r="AG3" s="450"/>
+      <c r="AH3" s="450"/>
+      <c r="AI3" s="450"/>
+      <c r="AJ3" s="450"/>
+      <c r="AK3" s="451"/>
       <c r="AL3" s="217" t="s">
         <v>1175</v>
       </c>
@@ -29994,13 +29994,13 @@
       </c>
     </row>
     <row r="5" spans="2:39">
-      <c r="B5" s="452" t="s">
+      <c r="B5" s="453" t="s">
         <v>1221</v>
       </c>
-      <c r="C5" s="445" t="s">
+      <c r="C5" s="441" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="456" t="s">
+      <c r="D5" s="444" t="s">
         <v>1222</v>
       </c>
       <c r="E5" s="218" t="s">
@@ -30046,9 +30046,9 @@
       <c r="AM5" s="61"/>
     </row>
     <row r="6" spans="2:39">
-      <c r="B6" s="453"/>
-      <c r="C6" s="454"/>
-      <c r="D6" s="457"/>
+      <c r="B6" s="454"/>
+      <c r="C6" s="442"/>
+      <c r="D6" s="445"/>
       <c r="E6" s="218" t="s">
         <v>1224</v>
       </c>
@@ -30092,9 +30092,9 @@
       <c r="AM6" s="51"/>
     </row>
     <row r="7" spans="2:39">
-      <c r="B7" s="453"/>
-      <c r="C7" s="454"/>
-      <c r="D7" s="457"/>
+      <c r="B7" s="454"/>
+      <c r="C7" s="442"/>
+      <c r="D7" s="445"/>
       <c r="E7" s="218" t="s">
         <v>1225</v>
       </c>
@@ -30138,9 +30138,9 @@
       <c r="AM7" s="51"/>
     </row>
     <row r="8" spans="2:39">
-      <c r="B8" s="453"/>
-      <c r="C8" s="454"/>
-      <c r="D8" s="457"/>
+      <c r="B8" s="454"/>
+      <c r="C8" s="442"/>
+      <c r="D8" s="445"/>
       <c r="E8" s="218" t="s">
         <v>1226</v>
       </c>
@@ -30184,9 +30184,9 @@
       <c r="AM8" s="51"/>
     </row>
     <row r="9" spans="2:39">
-      <c r="B9" s="453"/>
-      <c r="C9" s="454"/>
-      <c r="D9" s="457"/>
+      <c r="B9" s="454"/>
+      <c r="C9" s="442"/>
+      <c r="D9" s="445"/>
       <c r="E9" s="218" t="s">
         <v>1227</v>
       </c>
@@ -30234,9 +30234,9 @@
       <c r="AM9" s="51"/>
     </row>
     <row r="10" spans="2:39">
-      <c r="B10" s="453"/>
-      <c r="C10" s="454"/>
-      <c r="D10" s="457"/>
+      <c r="B10" s="454"/>
+      <c r="C10" s="442"/>
+      <c r="D10" s="445"/>
       <c r="E10" s="218" t="s">
         <v>1228</v>
       </c>
@@ -30284,9 +30284,9 @@
       <c r="AM10" s="51"/>
     </row>
     <row r="11" spans="2:39">
-      <c r="B11" s="453"/>
-      <c r="C11" s="455"/>
-      <c r="D11" s="457"/>
+      <c r="B11" s="454"/>
+      <c r="C11" s="443"/>
+      <c r="D11" s="445"/>
       <c r="E11" s="218" t="s">
         <v>1229</v>
       </c>
@@ -30332,7 +30332,7 @@
       <c r="AM11" s="51"/>
     </row>
     <row r="12" spans="2:39">
-      <c r="B12" s="444" t="s">
+      <c r="B12" s="440" t="s">
         <v>1230</v>
       </c>
       <c r="C12" s="434" t="s">
@@ -30571,10 +30571,10 @@
     </row>
     <row r="17" spans="2:39">
       <c r="B17" s="438"/>
-      <c r="C17" s="445" t="s">
+      <c r="C17" s="441" t="s">
         <v>1238</v>
       </c>
-      <c r="D17" s="445" t="s">
+      <c r="D17" s="441" t="s">
         <v>1238</v>
       </c>
       <c r="E17" s="218" t="s">
@@ -30623,8 +30623,8 @@
     </row>
     <row r="18" spans="2:39">
       <c r="B18" s="438"/>
-      <c r="C18" s="454"/>
-      <c r="D18" s="454"/>
+      <c r="C18" s="442"/>
+      <c r="D18" s="442"/>
       <c r="E18" s="218" t="s">
         <v>1240</v>
       </c>
@@ -30669,8 +30669,8 @@
     </row>
     <row r="19" spans="2:39">
       <c r="B19" s="438"/>
-      <c r="C19" s="454"/>
-      <c r="D19" s="454"/>
+      <c r="C19" s="442"/>
+      <c r="D19" s="442"/>
       <c r="E19" s="218" t="s">
         <v>1241</v>
       </c>
@@ -30715,8 +30715,8 @@
     </row>
     <row r="20" spans="2:39">
       <c r="B20" s="438"/>
-      <c r="C20" s="454"/>
-      <c r="D20" s="454"/>
+      <c r="C20" s="442"/>
+      <c r="D20" s="442"/>
       <c r="E20" s="218" t="s">
         <v>1242</v>
       </c>
@@ -30761,8 +30761,8 @@
     </row>
     <row r="21" spans="2:39">
       <c r="B21" s="438"/>
-      <c r="C21" s="454"/>
-      <c r="D21" s="454"/>
+      <c r="C21" s="442"/>
+      <c r="D21" s="442"/>
       <c r="E21" s="218" t="s">
         <v>1243</v>
       </c>
@@ -30807,8 +30807,8 @@
     </row>
     <row r="22" spans="2:39">
       <c r="B22" s="438"/>
-      <c r="C22" s="454"/>
-      <c r="D22" s="454"/>
+      <c r="C22" s="442"/>
+      <c r="D22" s="442"/>
       <c r="E22" s="218" t="s">
         <v>1244</v>
       </c>
@@ -30853,8 +30853,8 @@
     </row>
     <row r="23" spans="2:39">
       <c r="B23" s="439"/>
-      <c r="C23" s="454"/>
-      <c r="D23" s="454"/>
+      <c r="C23" s="442"/>
+      <c r="D23" s="442"/>
       <c r="E23" s="218" t="s">
         <v>1245</v>
       </c>
@@ -30898,13 +30898,13 @@
       <c r="AM23" s="51"/>
     </row>
     <row r="24" spans="2:39">
-      <c r="B24" s="444" t="s">
+      <c r="B24" s="440" t="s">
         <v>1246</v>
       </c>
-      <c r="C24" s="445" t="s">
+      <c r="C24" s="441" t="s">
         <v>1248</v>
       </c>
-      <c r="D24" s="456" t="s">
+      <c r="D24" s="444" t="s">
         <v>1247</v>
       </c>
       <c r="E24" s="218" t="s">
@@ -30951,8 +30951,8 @@
     </row>
     <row r="25" spans="2:39">
       <c r="B25" s="438"/>
-      <c r="C25" s="454"/>
-      <c r="D25" s="457"/>
+      <c r="C25" s="442"/>
+      <c r="D25" s="445"/>
       <c r="E25" s="218" t="s">
         <v>1250</v>
       </c>
@@ -30997,8 +30997,8 @@
     </row>
     <row r="26" spans="2:39">
       <c r="B26" s="438"/>
-      <c r="C26" s="454"/>
-      <c r="D26" s="457"/>
+      <c r="C26" s="442"/>
+      <c r="D26" s="445"/>
       <c r="E26" s="218" t="s">
         <v>1251</v>
       </c>
@@ -31043,8 +31043,8 @@
     </row>
     <row r="27" spans="2:39">
       <c r="B27" s="438"/>
-      <c r="C27" s="454"/>
-      <c r="D27" s="457"/>
+      <c r="C27" s="442"/>
+      <c r="D27" s="445"/>
       <c r="E27" s="218" t="s">
         <v>1252</v>
       </c>
@@ -31087,8 +31087,8 @@
     </row>
     <row r="28" spans="2:39">
       <c r="B28" s="438"/>
-      <c r="C28" s="454"/>
-      <c r="D28" s="457"/>
+      <c r="C28" s="442"/>
+      <c r="D28" s="445"/>
       <c r="E28" s="218" t="s">
         <v>1253</v>
       </c>
@@ -31131,8 +31131,8 @@
     </row>
     <row r="29" spans="2:39">
       <c r="B29" s="438"/>
-      <c r="C29" s="455"/>
-      <c r="D29" s="461"/>
+      <c r="C29" s="443"/>
+      <c r="D29" s="446"/>
       <c r="E29" s="220" t="s">
         <v>1255</v>
       </c>
@@ -31175,10 +31175,10 @@
     </row>
     <row r="30" spans="2:39">
       <c r="B30" s="438"/>
-      <c r="C30" s="462" t="s">
+      <c r="C30" s="447" t="s">
         <v>1256</v>
       </c>
-      <c r="D30" s="463" t="s">
+      <c r="D30" s="448" t="s">
         <v>1247</v>
       </c>
       <c r="E30" s="220" t="s">
@@ -31223,8 +31223,8 @@
     </row>
     <row r="31" spans="2:39">
       <c r="B31" s="438"/>
-      <c r="C31" s="454"/>
-      <c r="D31" s="457"/>
+      <c r="C31" s="442"/>
+      <c r="D31" s="445"/>
       <c r="E31" s="220" t="s">
         <v>1258</v>
       </c>
@@ -31267,8 +31267,8 @@
     </row>
     <row r="32" spans="2:39">
       <c r="B32" s="438"/>
-      <c r="C32" s="454"/>
-      <c r="D32" s="457"/>
+      <c r="C32" s="442"/>
+      <c r="D32" s="445"/>
       <c r="E32" s="220" t="s">
         <v>1259</v>
       </c>
@@ -31311,8 +31311,8 @@
     </row>
     <row r="33" spans="2:39">
       <c r="B33" s="438"/>
-      <c r="C33" s="454"/>
-      <c r="D33" s="457"/>
+      <c r="C33" s="442"/>
+      <c r="D33" s="445"/>
       <c r="E33" s="220" t="s">
         <v>1252</v>
       </c>
@@ -31355,8 +31355,8 @@
     </row>
     <row r="34" spans="2:39">
       <c r="B34" s="438"/>
-      <c r="C34" s="454"/>
-      <c r="D34" s="457"/>
+      <c r="C34" s="442"/>
+      <c r="D34" s="445"/>
       <c r="E34" s="220" t="s">
         <v>1260</v>
       </c>
@@ -31399,8 +31399,8 @@
     </row>
     <row r="35" spans="2:39">
       <c r="B35" s="438"/>
-      <c r="C35" s="454"/>
-      <c r="D35" s="457"/>
+      <c r="C35" s="442"/>
+      <c r="D35" s="445"/>
       <c r="E35" s="220" t="s">
         <v>1254</v>
       </c>
@@ -31443,8 +31443,8 @@
     </row>
     <row r="36" spans="2:39">
       <c r="B36" s="438"/>
-      <c r="C36" s="454"/>
-      <c r="D36" s="461"/>
+      <c r="C36" s="442"/>
+      <c r="D36" s="446"/>
       <c r="E36" s="220" t="s">
         <v>1261</v>
       </c>
@@ -31489,8 +31489,8 @@
     </row>
     <row r="37" spans="2:39">
       <c r="B37" s="438"/>
-      <c r="C37" s="454"/>
-      <c r="D37" s="456" t="s">
+      <c r="C37" s="442"/>
+      <c r="D37" s="444" t="s">
         <v>1263</v>
       </c>
       <c r="E37" s="218" t="s">
@@ -31535,8 +31535,8 @@
     </row>
     <row r="38" spans="2:39">
       <c r="B38" s="438"/>
-      <c r="C38" s="454"/>
-      <c r="D38" s="457"/>
+      <c r="C38" s="442"/>
+      <c r="D38" s="445"/>
       <c r="E38" s="218" t="s">
         <v>1265</v>
       </c>
@@ -31579,8 +31579,8 @@
     </row>
     <row r="39" spans="2:39">
       <c r="B39" s="438"/>
-      <c r="C39" s="454"/>
-      <c r="D39" s="457"/>
+      <c r="C39" s="442"/>
+      <c r="D39" s="445"/>
       <c r="E39" s="218" t="s">
         <v>1266</v>
       </c>
@@ -31623,8 +31623,8 @@
     </row>
     <row r="40" spans="2:39">
       <c r="B40" s="438"/>
-      <c r="C40" s="454"/>
-      <c r="D40" s="461"/>
+      <c r="C40" s="442"/>
+      <c r="D40" s="446"/>
       <c r="E40" s="218" t="s">
         <v>1267</v>
       </c>
@@ -31667,8 +31667,8 @@
     </row>
     <row r="41" spans="2:39">
       <c r="B41" s="438"/>
-      <c r="C41" s="454"/>
-      <c r="D41" s="456" t="s">
+      <c r="C41" s="442"/>
+      <c r="D41" s="444" t="s">
         <v>1268</v>
       </c>
       <c r="E41" s="221" t="s">
@@ -31713,8 +31713,8 @@
     </row>
     <row r="42" spans="2:39">
       <c r="B42" s="438"/>
-      <c r="C42" s="454"/>
-      <c r="D42" s="457"/>
+      <c r="C42" s="442"/>
+      <c r="D42" s="445"/>
       <c r="E42" s="221" t="s">
         <v>1270</v>
       </c>
@@ -31757,8 +31757,8 @@
     </row>
     <row r="43" spans="2:39">
       <c r="B43" s="438"/>
-      <c r="C43" s="454"/>
-      <c r="D43" s="457"/>
+      <c r="C43" s="442"/>
+      <c r="D43" s="445"/>
       <c r="E43" s="221" t="s">
         <v>1271</v>
       </c>
@@ -31801,8 +31801,8 @@
     </row>
     <row r="44" spans="2:39">
       <c r="B44" s="438"/>
-      <c r="C44" s="454"/>
-      <c r="D44" s="457"/>
+      <c r="C44" s="442"/>
+      <c r="D44" s="445"/>
       <c r="E44" s="221" t="s">
         <v>1272</v>
       </c>
@@ -31845,8 +31845,8 @@
     </row>
     <row r="45" spans="2:39">
       <c r="B45" s="438"/>
-      <c r="C45" s="454"/>
-      <c r="D45" s="461"/>
+      <c r="C45" s="442"/>
+      <c r="D45" s="446"/>
       <c r="E45" s="221" t="s">
         <v>1273</v>
       </c>
@@ -31889,8 +31889,8 @@
     </row>
     <row r="46" spans="2:39">
       <c r="B46" s="438"/>
-      <c r="C46" s="454"/>
-      <c r="D46" s="456" t="s">
+      <c r="C46" s="442"/>
+      <c r="D46" s="444" t="s">
         <v>1274</v>
       </c>
       <c r="E46" s="221" t="s">
@@ -31935,8 +31935,8 @@
     </row>
     <row r="47" spans="2:39">
       <c r="B47" s="438"/>
-      <c r="C47" s="454"/>
-      <c r="D47" s="457"/>
+      <c r="C47" s="442"/>
+      <c r="D47" s="445"/>
       <c r="E47" s="221" t="s">
         <v>1276</v>
       </c>
@@ -31979,8 +31979,8 @@
     </row>
     <row r="48" spans="2:39">
       <c r="B48" s="438"/>
-      <c r="C48" s="454"/>
-      <c r="D48" s="457"/>
+      <c r="C48" s="442"/>
+      <c r="D48" s="445"/>
       <c r="E48" s="221" t="s">
         <v>1277</v>
       </c>
@@ -32023,8 +32023,8 @@
     </row>
     <row r="49" spans="2:39">
       <c r="B49" s="438"/>
-      <c r="C49" s="454"/>
-      <c r="D49" s="461"/>
+      <c r="C49" s="442"/>
+      <c r="D49" s="446"/>
       <c r="E49" s="221" t="s">
         <v>1278</v>
       </c>
@@ -32067,8 +32067,8 @@
     </row>
     <row r="50" spans="2:39">
       <c r="B50" s="438"/>
-      <c r="C50" s="454"/>
-      <c r="D50" s="456" t="s">
+      <c r="C50" s="442"/>
+      <c r="D50" s="444" t="s">
         <v>1279</v>
       </c>
       <c r="E50" s="221" t="s">
@@ -32113,8 +32113,8 @@
     </row>
     <row r="51" spans="2:39">
       <c r="B51" s="438"/>
-      <c r="C51" s="454"/>
-      <c r="D51" s="457"/>
+      <c r="C51" s="442"/>
+      <c r="D51" s="445"/>
       <c r="E51" s="221" t="s">
         <v>1281</v>
       </c>
@@ -32157,8 +32157,8 @@
     </row>
     <row r="52" spans="2:39">
       <c r="B52" s="438"/>
-      <c r="C52" s="454"/>
-      <c r="D52" s="457"/>
+      <c r="C52" s="442"/>
+      <c r="D52" s="445"/>
       <c r="E52" s="221" t="s">
         <v>1282</v>
       </c>
@@ -32201,8 +32201,8 @@
     </row>
     <row r="53" spans="2:39">
       <c r="B53" s="438"/>
-      <c r="C53" s="454"/>
-      <c r="D53" s="457"/>
+      <c r="C53" s="442"/>
+      <c r="D53" s="445"/>
       <c r="E53" s="221" t="s">
         <v>1283</v>
       </c>
@@ -32245,8 +32245,8 @@
     </row>
     <row r="54" spans="2:39">
       <c r="B54" s="438"/>
-      <c r="C54" s="454"/>
-      <c r="D54" s="457"/>
+      <c r="C54" s="442"/>
+      <c r="D54" s="445"/>
       <c r="E54" s="221" t="s">
         <v>1284</v>
       </c>
@@ -32289,8 +32289,8 @@
     </row>
     <row r="55" spans="2:39">
       <c r="B55" s="438"/>
-      <c r="C55" s="454"/>
-      <c r="D55" s="457"/>
+      <c r="C55" s="442"/>
+      <c r="D55" s="445"/>
       <c r="E55" s="221" t="s">
         <v>1285</v>
       </c>
@@ -32333,8 +32333,8 @@
     </row>
     <row r="56" spans="2:39">
       <c r="B56" s="438"/>
-      <c r="C56" s="454"/>
-      <c r="D56" s="457"/>
+      <c r="C56" s="442"/>
+      <c r="D56" s="445"/>
       <c r="E56" s="221" t="s">
         <v>1286</v>
       </c>
@@ -32377,8 +32377,8 @@
     </row>
     <row r="57" spans="2:39">
       <c r="B57" s="438"/>
-      <c r="C57" s="454"/>
-      <c r="D57" s="457"/>
+      <c r="C57" s="442"/>
+      <c r="D57" s="445"/>
       <c r="E57" s="221" t="s">
         <v>1360</v>
       </c>
@@ -32421,8 +32421,8 @@
     </row>
     <row r="58" spans="2:39">
       <c r="B58" s="438"/>
-      <c r="C58" s="454"/>
-      <c r="D58" s="457"/>
+      <c r="C58" s="442"/>
+      <c r="D58" s="445"/>
       <c r="E58" s="221" t="s">
         <v>1361</v>
       </c>
@@ -32465,8 +32465,8 @@
     </row>
     <row r="59" spans="2:39">
       <c r="B59" s="439"/>
-      <c r="C59" s="455"/>
-      <c r="D59" s="461"/>
+      <c r="C59" s="443"/>
+      <c r="D59" s="446"/>
       <c r="E59" s="221" t="s">
         <v>1362</v>
       </c>
@@ -32508,13 +32508,13 @@
       <c r="AM59" s="51"/>
     </row>
     <row r="60" spans="2:39">
-      <c r="B60" s="444" t="s">
+      <c r="B60" s="440" t="s">
         <v>1287</v>
       </c>
-      <c r="C60" s="445" t="s">
+      <c r="C60" s="441" t="s">
         <v>1288</v>
       </c>
-      <c r="D60" s="446" t="s">
+      <c r="D60" s="462" t="s">
         <v>1287</v>
       </c>
       <c r="E60" s="221" t="s">
@@ -32650,13 +32650,13 @@
       <c r="AM61" s="51"/>
     </row>
     <row r="62" spans="2:39">
-      <c r="B62" s="444" t="s">
+      <c r="B62" s="440" t="s">
         <v>1292</v>
       </c>
-      <c r="C62" s="447" t="s">
+      <c r="C62" s="463" t="s">
         <v>1291</v>
       </c>
-      <c r="D62" s="447" t="s">
+      <c r="D62" s="463" t="s">
         <v>1293</v>
       </c>
       <c r="E62" s="218" t="s">
@@ -32792,13 +32792,13 @@
       <c r="AM64" s="51"/>
     </row>
     <row r="65" spans="2:39">
-      <c r="B65" s="440" t="s">
+      <c r="B65" s="458" t="s">
         <v>1297</v>
       </c>
-      <c r="C65" s="442" t="s">
+      <c r="C65" s="460" t="s">
         <v>1298</v>
       </c>
-      <c r="D65" s="442" t="s">
+      <c r="D65" s="460" t="s">
         <v>1298</v>
       </c>
       <c r="E65" s="218" t="s">
@@ -33210,9 +33210,9 @@
       </c>
     </row>
     <row r="74" spans="2:39" ht="17.25" thickBot="1">
-      <c r="B74" s="441"/>
-      <c r="C74" s="443"/>
-      <c r="D74" s="443"/>
+      <c r="B74" s="459"/>
+      <c r="C74" s="461"/>
+      <c r="D74" s="461"/>
       <c r="E74" s="223" t="s">
         <v>1308</v>
       </c>
@@ -33259,6 +33259,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B65:B74"/>
+    <mergeCell ref="C65:C74"/>
+    <mergeCell ref="D65:D74"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:Y3"/>
+    <mergeCell ref="Z3:AK3"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="D5:D11"/>
+    <mergeCell ref="B3:F3"/>
     <mergeCell ref="B24:B59"/>
     <mergeCell ref="C24:C29"/>
     <mergeCell ref="B12:B23"/>
@@ -33273,22 +33289,6 @@
     <mergeCell ref="D41:D45"/>
     <mergeCell ref="D46:D49"/>
     <mergeCell ref="D50:D59"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:Y3"/>
-    <mergeCell ref="Z3:AK3"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="D5:D11"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B65:B74"/>
-    <mergeCell ref="C65:C74"/>
-    <mergeCell ref="D65:D74"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:D64"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -33355,51 +33355,51 @@
       </c>
     </row>
     <row r="3" spans="2:38">
-      <c r="B3" s="467" t="s">
+      <c r="B3" s="464" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="468"/>
-      <c r="D3" s="468"/>
-      <c r="E3" s="469"/>
+      <c r="C3" s="465"/>
+      <c r="D3" s="465"/>
+      <c r="E3" s="466"/>
       <c r="F3" s="69" t="s">
         <v>1186</v>
       </c>
-      <c r="G3" s="448" t="s">
+      <c r="G3" s="449" t="s">
         <v>1187</v>
       </c>
-      <c r="H3" s="449"/>
-      <c r="I3" s="450"/>
-      <c r="J3" s="448" t="s">
+      <c r="H3" s="450"/>
+      <c r="I3" s="451"/>
+      <c r="J3" s="449" t="s">
         <v>1204</v>
       </c>
-      <c r="K3" s="449"/>
-      <c r="L3" s="449"/>
-      <c r="M3" s="449"/>
-      <c r="N3" s="449"/>
-      <c r="O3" s="449"/>
-      <c r="P3" s="449"/>
-      <c r="Q3" s="449"/>
-      <c r="R3" s="449"/>
-      <c r="S3" s="449"/>
-      <c r="T3" s="449"/>
-      <c r="U3" s="449"/>
-      <c r="V3" s="449"/>
-      <c r="W3" s="449"/>
-      <c r="X3" s="450"/>
-      <c r="Y3" s="451" t="s">
+      <c r="K3" s="450"/>
+      <c r="L3" s="450"/>
+      <c r="M3" s="450"/>
+      <c r="N3" s="450"/>
+      <c r="O3" s="450"/>
+      <c r="P3" s="450"/>
+      <c r="Q3" s="450"/>
+      <c r="R3" s="450"/>
+      <c r="S3" s="450"/>
+      <c r="T3" s="450"/>
+      <c r="U3" s="450"/>
+      <c r="V3" s="450"/>
+      <c r="W3" s="450"/>
+      <c r="X3" s="451"/>
+      <c r="Y3" s="452" t="s">
         <v>1219</v>
       </c>
-      <c r="Z3" s="449"/>
-      <c r="AA3" s="449"/>
-      <c r="AB3" s="449"/>
-      <c r="AC3" s="449"/>
-      <c r="AD3" s="449"/>
-      <c r="AE3" s="449"/>
-      <c r="AF3" s="449"/>
-      <c r="AG3" s="449"/>
-      <c r="AH3" s="449"/>
-      <c r="AI3" s="449"/>
-      <c r="AJ3" s="450"/>
+      <c r="Z3" s="450"/>
+      <c r="AA3" s="450"/>
+      <c r="AB3" s="450"/>
+      <c r="AC3" s="450"/>
+      <c r="AD3" s="450"/>
+      <c r="AE3" s="450"/>
+      <c r="AF3" s="450"/>
+      <c r="AG3" s="450"/>
+      <c r="AH3" s="450"/>
+      <c r="AI3" s="450"/>
+      <c r="AJ3" s="451"/>
       <c r="AK3" s="217" t="s">
         <v>1175</v>
       </c>
@@ -33566,10 +33566,10 @@
       <c r="AL5" s="61"/>
     </row>
     <row r="6" spans="2:38">
-      <c r="B6" s="464" t="s">
+      <c r="B6" s="468" t="s">
         <v>1317</v>
       </c>
-      <c r="C6" s="465" t="s">
+      <c r="C6" s="469" t="s">
         <v>1318</v>
       </c>
       <c r="D6" s="226" t="s">
@@ -33663,7 +33663,7 @@
     </row>
     <row r="8" spans="2:38">
       <c r="B8" s="438"/>
-      <c r="C8" s="447" t="s">
+      <c r="C8" s="463" t="s">
         <v>1321</v>
       </c>
       <c r="D8" s="46" t="s">
@@ -33802,7 +33802,7 @@
     </row>
     <row r="11" spans="2:38">
       <c r="B11" s="438"/>
-      <c r="C11" s="447" t="s">
+      <c r="C11" s="463" t="s">
         <v>1327</v>
       </c>
       <c r="D11" s="227" t="s">
@@ -33986,10 +33986,10 @@
       <c r="AL13" s="51"/>
     </row>
     <row r="14" spans="2:38">
-      <c r="B14" s="466" t="s">
+      <c r="B14" s="470" t="s">
         <v>1230</v>
       </c>
-      <c r="C14" s="447" t="s">
+      <c r="C14" s="463" t="s">
         <v>1231</v>
       </c>
       <c r="D14" s="46" t="s">
@@ -34262,7 +34262,7 @@
       <c r="AL19" s="51"/>
     </row>
     <row r="20" spans="2:38">
-      <c r="B20" s="444" t="s">
+      <c r="B20" s="440" t="s">
         <v>1268</v>
       </c>
       <c r="C20" s="227" t="s">
@@ -34309,7 +34309,7 @@
       <c r="AL20" s="51"/>
     </row>
     <row r="21" spans="2:38">
-      <c r="B21" s="470"/>
+      <c r="B21" s="467"/>
       <c r="C21" s="227" t="s">
         <v>1340</v>
       </c>
@@ -34401,10 +34401,10 @@
       <c r="AL22" s="51"/>
     </row>
     <row r="23" spans="2:38">
-      <c r="B23" s="444" t="s">
+      <c r="B23" s="440" t="s">
         <v>1344</v>
       </c>
-      <c r="C23" s="447" t="s">
+      <c r="C23" s="463" t="s">
         <v>1345</v>
       </c>
       <c r="D23" s="227" t="s">
@@ -34721,11 +34721,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:X3"/>
-    <mergeCell ref="Y3:AJ3"/>
-    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="B6:B13"/>
@@ -34734,6 +34729,11 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:X3"/>
+    <mergeCell ref="Y3:AJ3"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -40163,8 +40163,8 @@
   </sheetPr>
   <dimension ref="A2:J679"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I187" sqref="I187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12"/>
@@ -52175,7 +52175,7 @@
   <dimension ref="A2:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -52968,8 +52968,8 @@
   </sheetPr>
   <dimension ref="A1:J1261"/>
   <sheetViews>
-    <sheetView topLeftCell="A1123" workbookViewId="0">
-      <selection activeCell="L1146" sqref="L1146"/>
+    <sheetView topLeftCell="A1136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1160" sqref="C1160:C1171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
